--- a/out/test/Figori_algorithm_4.xlsx
+++ b/out/test/Figori_algorithm_4.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.68684999999999996</v>
+        <v>0.68359999999999999</v>
       </c>
       <c r="B1">
-        <v>0.67535000000000001</v>
+        <v>0.45379999999999998</v>
       </c>
       <c r="C1">
-        <v>0.45424999999999999</v>
+        <v>0.68315000000000003</v>
       </c>
       <c r="D1">
-        <v>0.69110000000000005</v>
+        <v>0.68254999999999999</v>
       </c>
       <c r="E1">
-        <v>0.67395000000000005</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="F1">
-        <v>0.69820000000000004</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="G1">
-        <v>0.45400000000000001</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="H1">
-        <v>0.68059999999999998</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="I1">
-        <v>0.68225000000000002</v>
+        <v>0.68845000000000001</v>
       </c>
       <c r="J1">
-        <v>0.67989999999999995</v>
+        <v>0.68664999999999998</v>
       </c>
       <c r="K1">
-        <v>0.45395000000000002</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="L1">
-        <v>0.69164999999999999</v>
+        <v>0.68989999999999996</v>
       </c>
       <c r="M1">
-        <v>0.68684999999999996</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="N1">
-        <v>0.45240000000000002</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="O1">
-        <v>0.67915000000000003</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="P1">
-        <v>0.68594999999999995</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.67925000000000002</v>
+        <v>0.67474999999999996</v>
       </c>
       <c r="R1">
-        <v>0.67925000000000002</v>
+        <v>0.6905</v>
       </c>
       <c r="S1">
-        <v>0.4572</v>
+        <v>0.68635000000000002</v>
       </c>
       <c r="T1">
-        <v>0.68974999999999997</v>
+        <v>0.6875</v>
       </c>
       <c r="U1">
-        <v>0.67964999999999998</v>
+        <v>0.67544999999999999</v>
       </c>
       <c r="V1">
-        <v>0.67774999999999996</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="W1">
-        <v>0.69169999999999998</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="X1">
-        <v>0.67879999999999996</v>
+        <v>0.67605000000000004</v>
       </c>
       <c r="Y1">
-        <v>0.68605000000000005</v>
+        <v>0.45119999999999999</v>
       </c>
       <c r="Z1">
-        <v>0.68330000000000002</v>
+        <v>0.68454999999999999</v>
       </c>
       <c r="AA1">
-        <v>0.68169999999999997</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="AB1">
-        <v>0.68569999999999998</v>
+        <v>0.67544999999999999</v>
       </c>
       <c r="AC1">
-        <v>0.69279999999999997</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.69025000000000003</v>
+        <v>0.69410000000000005</v>
       </c>
       <c r="AE1">
-        <v>0.68905000000000005</v>
+        <v>0.67474999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.45595000000000002</v>
+        <v>0.4541</v>
       </c>
       <c r="AG1">
-        <v>0.68955</v>
+        <v>0.68</v>
       </c>
       <c r="AH1">
-        <v>0.69205000000000005</v>
+        <v>0.68574999999999997</v>
       </c>
       <c r="AI1">
-        <v>0.67574999999999996</v>
+        <v>0.45215</v>
       </c>
       <c r="AJ1">
-        <v>0.68905000000000005</v>
+        <v>0.69635000000000002</v>
       </c>
       <c r="AK1">
-        <v>0.68855</v>
+        <v>0.69125000000000003</v>
       </c>
       <c r="AL1">
-        <v>0.68830000000000002</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="AM1">
-        <v>0.69084999999999996</v>
+        <v>0.68625000000000003</v>
       </c>
       <c r="AN1">
-        <v>0.68089999999999995</v>
+        <v>0.68054999999999999</v>
       </c>
       <c r="AO1">
-        <v>0.68200000000000005</v>
+        <v>0.45660000000000001</v>
       </c>
       <c r="AP1">
-        <v>0.69445000000000001</v>
+        <v>0.67695000000000005</v>
       </c>
       <c r="AQ1">
-        <v>0.68835000000000002</v>
+        <v>0.68405000000000005</v>
       </c>
       <c r="AR1">
-        <v>0.70125000000000004</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="AS1">
-        <v>0.68589999999999995</v>
+        <v>0.68525000000000003</v>
       </c>
       <c r="AT1">
-        <v>0.6996</v>
+        <v>0.67995000000000005</v>
       </c>
       <c r="AU1">
-        <v>0.67949999999999999</v>
+        <v>0.45515</v>
       </c>
       <c r="AV1">
-        <v>0.45374999999999999</v>
+        <v>0.67444999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.68810000000000004</v>
+        <v>0.45224999999999999</v>
       </c>
       <c r="AX1">
-        <v>0.68010000000000004</v>
+        <v>0.68515000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.67020000000000002</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="B2">
-        <v>0.67179999999999995</v>
+        <v>0.43480000000000002</v>
       </c>
       <c r="C2">
-        <v>0.43014999999999998</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="D2">
-        <v>0.67574999999999996</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="E2">
-        <v>0.64300000000000002</v>
+        <v>0.6552</v>
       </c>
       <c r="F2">
-        <v>0.92779999999999996</v>
+        <v>0.66385000000000005</v>
       </c>
       <c r="G2">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="H2">
+        <v>0.44174999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.91115000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.68764999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.68105000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="O2">
+        <v>0.67664999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.65064999999999995</v>
+      </c>
+      <c r="Q2">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.6734</v>
+      </c>
+      <c r="T2">
+        <v>0.67384999999999995</v>
+      </c>
+      <c r="U2">
+        <v>0.64685000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.6542</v>
+      </c>
+      <c r="W2">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="X2">
+        <v>0.63334999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="Z2">
+        <v>0.66625000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="AB2">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="AC2">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.66790000000000005</v>
+      </c>
+      <c r="AE2">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0.65015000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.65505000000000002</v>
+      </c>
+      <c r="AI2">
         <v>0.43845000000000001</v>
       </c>
-      <c r="H2">
-        <v>0.6603</v>
-      </c>
-      <c r="I2">
-        <v>0.68059999999999998</v>
-      </c>
-      <c r="J2">
+      <c r="AJ2">
+        <v>0.68254999999999999</v>
+      </c>
+      <c r="AK2">
         <v>0.66685000000000005</v>
       </c>
-      <c r="K2">
-        <v>0.43754999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.68010000000000004</v>
-      </c>
-      <c r="M2">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.43835000000000002</v>
-      </c>
-      <c r="O2">
-        <v>0.65134999999999998</v>
-      </c>
-      <c r="P2">
-        <v>0.65734999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="R2">
-        <v>0.91420000000000001</v>
-      </c>
-      <c r="S2">
-        <v>0.44105</v>
-      </c>
-      <c r="T2">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="U2">
-        <v>0.65385000000000004</v>
-      </c>
-      <c r="V2">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="W2">
-        <v>0.65915000000000001</v>
-      </c>
-      <c r="X2">
-        <v>0.67154999999999998</v>
-      </c>
-      <c r="Y2">
-        <v>0.65215000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.66354999999999997</v>
-      </c>
-      <c r="AA2">
-        <v>0.67105000000000004</v>
-      </c>
-      <c r="AB2">
-        <v>0.67454999999999998</v>
-      </c>
-      <c r="AC2">
-        <v>0.67789999999999995</v>
-      </c>
-      <c r="AD2">
-        <v>0.66174999999999995</v>
-      </c>
-      <c r="AE2">
-        <v>0.67759999999999998</v>
-      </c>
-      <c r="AF2">
-        <v>0.67279999999999995</v>
-      </c>
-      <c r="AG2">
-        <v>0.68105000000000004</v>
-      </c>
-      <c r="AH2">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="AI2">
-        <v>0.68464999999999998</v>
-      </c>
-      <c r="AJ2">
-        <v>0.66190000000000004</v>
-      </c>
-      <c r="AK2">
-        <v>0.67295000000000005</v>
-      </c>
       <c r="AL2">
-        <v>0.67115000000000002</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.69379999999999997</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="AN2">
-        <v>0.65980000000000005</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.64870000000000005</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.67144999999999999</v>
+        <v>0.66110000000000002</v>
       </c>
       <c r="AQ2">
-        <v>0.68254999999999999</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.68325000000000002</v>
+        <v>0.68725000000000003</v>
       </c>
       <c r="AS2">
-        <v>0.66674999999999995</v>
+        <v>0.65095000000000003</v>
       </c>
       <c r="AT2">
-        <v>0.68730000000000002</v>
+        <v>0.90525</v>
       </c>
       <c r="AU2">
-        <v>0.67359999999999998</v>
+        <v>0.44555</v>
       </c>
       <c r="AV2">
-        <v>0.43430000000000002</v>
+        <v>0.66935</v>
       </c>
       <c r="AW2">
-        <v>0.71165</v>
+        <v>0.4536</v>
       </c>
       <c r="AX2">
-        <v>0.66064999999999996</v>
+        <v>0.6623</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.63644999999999996</v>
+        <v>0.62065000000000003</v>
       </c>
       <c r="B3">
-        <v>0.82399999999999995</v>
+        <v>0.40944999999999998</v>
       </c>
       <c r="C3">
-        <v>0.41804999999999998</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="D3">
-        <v>0.94350000000000001</v>
+        <v>0.5988</v>
       </c>
       <c r="E3">
-        <v>0.87519999999999998</v>
+        <v>0.62144999999999995</v>
       </c>
       <c r="F3">
-        <v>0.87334999999999996</v>
+        <v>0.68554999999999999</v>
       </c>
       <c r="G3">
-        <v>0.40310000000000001</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="H3">
-        <v>0.62275000000000003</v>
+        <v>0.40834999999999999</v>
       </c>
       <c r="I3">
-        <v>0.93515000000000004</v>
+        <v>0.89644999999999997</v>
       </c>
       <c r="J3">
-        <v>0.63995000000000002</v>
+        <v>0.64275000000000004</v>
       </c>
       <c r="K3">
+        <v>0.63475000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.90674999999999994</v>
+      </c>
+      <c r="O3">
+        <v>0.59770000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.65244999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.61365000000000003</v>
+      </c>
+      <c r="T3">
+        <v>0.65639999999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.57984999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="W3">
         <v>0.60440000000000005</v>
       </c>
-      <c r="L3">
-        <v>0.64229999999999998</v>
-      </c>
-      <c r="M3">
-        <v>0.64615</v>
-      </c>
-      <c r="N3">
-        <v>0.41909999999999997</v>
-      </c>
-      <c r="O3">
-        <v>0.60589999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.62524999999999997</v>
-      </c>
-      <c r="Q3">
-        <v>0.65095000000000003</v>
-      </c>
-      <c r="R3">
-        <v>0.94030000000000002</v>
-      </c>
-      <c r="S3">
-        <v>0.42054999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="U3">
-        <v>0.61814999999999998</v>
-      </c>
-      <c r="V3">
-        <v>0.61604999999999999</v>
-      </c>
-      <c r="W3">
-        <v>0.63024999999999998</v>
-      </c>
       <c r="X3">
-        <v>0.65939999999999999</v>
+        <v>0.58845000000000003</v>
       </c>
       <c r="Y3">
-        <v>0.60060000000000002</v>
+        <v>0.66064999999999996</v>
       </c>
       <c r="Z3">
-        <v>0.60780000000000001</v>
+        <v>0.80735000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.84175</v>
+        <v>0.59345000000000003</v>
       </c>
       <c r="AB3">
-        <v>0.65159999999999996</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.87514999999999998</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="AD3">
-        <v>0.84909999999999997</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.65915000000000001</v>
+        <v>0.61465000000000003</v>
       </c>
       <c r="AF3">
-        <v>0.82630000000000003</v>
+        <v>0.40344999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.8972</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.66990000000000005</v>
+        <v>0.62185000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.63765000000000005</v>
+        <v>0.39905000000000002</v>
       </c>
       <c r="AJ3">
-        <v>0.60980000000000001</v>
+        <v>0.69120000000000004</v>
       </c>
       <c r="AK3">
-        <v>0.65869999999999995</v>
+        <v>0.58894999999999997</v>
       </c>
       <c r="AL3">
-        <v>0.64034999999999997</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="AM3">
-        <v>0.63834999999999997</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.63049999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.59909999999999997</v>
+        <v>0.42494999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.63980000000000004</v>
+        <v>0.5927</v>
       </c>
       <c r="AQ3">
-        <v>0.64229999999999998</v>
+        <v>0.64975000000000005</v>
       </c>
       <c r="AR3">
-        <v>0.68740000000000001</v>
+        <v>0.65810000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.68869999999999998</v>
+        <v>0.68345</v>
       </c>
       <c r="AT3">
-        <v>0.61519999999999997</v>
+        <v>0.84050000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.6381</v>
+        <v>0.41260000000000002</v>
       </c>
       <c r="AV3">
-        <v>0.38109999999999999</v>
+        <v>0.62224999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.67635000000000001</v>
+        <v>0.42585000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.58440000000000003</v>
+        <v>0.61234999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.81969999999999998</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="B4">
-        <v>0.79325000000000001</v>
+        <v>0.37640000000000001</v>
       </c>
       <c r="C4">
-        <v>0.33195000000000002</v>
+        <v>0.57089999999999996</v>
       </c>
       <c r="D4">
-        <v>0.86065000000000003</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="E4">
-        <v>0.81499999999999995</v>
+        <v>0.54605000000000004</v>
       </c>
       <c r="F4">
-        <v>0.79925000000000002</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="G4">
-        <v>0.3775</v>
+        <v>0.60414999999999996</v>
       </c>
       <c r="H4">
-        <v>0.51734999999999998</v>
+        <v>0.38305</v>
       </c>
       <c r="I4">
-        <v>0.93489999999999995</v>
+        <v>0.83650000000000002</v>
       </c>
       <c r="J4">
-        <v>0.55174999999999996</v>
+        <v>0.58474999999999999</v>
       </c>
       <c r="K4">
-        <v>0.61065000000000003</v>
+        <v>0.57750000000000001</v>
       </c>
       <c r="L4">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.88265000000000005</v>
+      </c>
+      <c r="O4">
+        <v>0.50775000000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.54074999999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.55464999999999998</v>
+      </c>
+      <c r="T4">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="U4">
+        <v>0.50875000000000004</v>
+      </c>
+      <c r="V4">
         <v>0.58120000000000005</v>
       </c>
-      <c r="M4">
-        <v>0.93354999999999999</v>
-      </c>
-      <c r="N4">
-        <v>0.36895</v>
-      </c>
-      <c r="O4">
-        <v>0.87244999999999995</v>
-      </c>
-      <c r="P4">
-        <v>0.56830000000000003</v>
-      </c>
-      <c r="Q4">
-        <v>0.60870000000000002</v>
-      </c>
-      <c r="R4">
-        <v>0.95115000000000005</v>
-      </c>
-      <c r="S4">
-        <v>0.76559999999999995</v>
-      </c>
-      <c r="T4">
-        <v>0.66605000000000003</v>
-      </c>
-      <c r="U4">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="V4">
-        <v>0.60460000000000003</v>
-      </c>
       <c r="W4">
-        <v>0.62050000000000005</v>
+        <v>0.55635000000000001</v>
       </c>
       <c r="X4">
-        <v>0.58855000000000002</v>
+        <v>0.54890000000000005</v>
       </c>
       <c r="Y4">
-        <v>0.53854999999999997</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.55689999999999995</v>
+        <v>0.73804999999999998</v>
       </c>
       <c r="AA4">
-        <v>0.77195000000000003</v>
+        <v>0.50605</v>
       </c>
       <c r="AB4">
-        <v>0.59240000000000004</v>
+        <v>0.58389999999999997</v>
       </c>
       <c r="AC4">
-        <v>0.83650000000000002</v>
+        <v>0.82504999999999995</v>
       </c>
       <c r="AD4">
-        <v>0.75724999999999998</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="AE4">
-        <v>0.87375000000000003</v>
+        <v>0.56740000000000002</v>
       </c>
       <c r="AF4">
-        <v>0.7601</v>
+        <v>0.35354999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.83889999999999998</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AH4">
-        <v>0.64065000000000005</v>
+        <v>0.54244999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.53480000000000005</v>
+        <v>0.53664999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.52985000000000004</v>
+        <v>0.81330000000000002</v>
       </c>
       <c r="AK4">
-        <v>0.62270000000000003</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="AL4">
-        <v>0.57045000000000001</v>
+        <v>0.57374999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.60675000000000001</v>
+        <v>0.76954999999999996</v>
       </c>
       <c r="AN4">
-        <v>0.53274999999999995</v>
+        <v>0.53090000000000004</v>
       </c>
       <c r="AO4">
-        <v>0.5232</v>
+        <v>0.38364999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.58530000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="AQ4">
-        <v>0.58379999999999999</v>
+        <v>0.87050000000000005</v>
       </c>
       <c r="AR4">
-        <v>0.8468</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.65615000000000001</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.55530000000000002</v>
+        <v>0.81664999999999999</v>
       </c>
       <c r="AU4">
-        <v>0.56679999999999997</v>
+        <v>0.60785</v>
       </c>
       <c r="AV4">
-        <v>0.55059999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="AW4">
-        <v>0.65805000000000002</v>
+        <v>0.37774999999999997</v>
       </c>
       <c r="AX4">
-        <v>0.55074999999999996</v>
+        <v>0.55430000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.84265000000000001</v>
+        <v>0.4753</v>
       </c>
       <c r="B5">
-        <v>0.77229999999999999</v>
+        <v>0.30149999999999999</v>
       </c>
       <c r="C5">
-        <v>0.44529999999999997</v>
+        <v>0.49795</v>
       </c>
       <c r="D5">
-        <v>0.80874999999999997</v>
+        <v>0.5675</v>
       </c>
       <c r="E5">
-        <v>0.71860000000000002</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="F5">
-        <v>0.71870000000000001</v>
+        <v>0.88519999999999999</v>
       </c>
       <c r="G5">
-        <v>0.32729999999999998</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="H5">
-        <v>0.40015000000000001</v>
+        <v>0.31154999999999999</v>
       </c>
       <c r="I5">
-        <v>0.89985000000000004</v>
+        <v>0.79435</v>
       </c>
       <c r="J5">
-        <v>0.50695000000000001</v>
+        <v>0.58425000000000005</v>
       </c>
       <c r="K5">
-        <v>0.71055000000000001</v>
+        <v>0.46189999999999998</v>
       </c>
       <c r="L5">
-        <v>0.48015000000000002</v>
+        <v>0.73175000000000001</v>
       </c>
       <c r="M5">
-        <v>0.92015000000000002</v>
+        <v>0.61845000000000006</v>
       </c>
       <c r="N5">
-        <v>0.49425000000000002</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="O5">
-        <v>0.80935000000000001</v>
+        <v>0.45479999999999998</v>
       </c>
       <c r="P5">
-        <v>0.85880000000000001</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.82050000000000001</v>
+        <v>0.83945000000000003</v>
       </c>
       <c r="R5">
-        <v>0.92020000000000002</v>
+        <v>0.74934999999999996</v>
       </c>
       <c r="S5">
-        <v>0.56245000000000001</v>
+        <v>0.47120000000000001</v>
       </c>
       <c r="T5">
-        <v>0.63234999999999997</v>
+        <v>0.5726</v>
       </c>
       <c r="U5">
-        <v>0.67949999999999999</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="V5">
-        <v>0.53734999999999999</v>
+        <v>0.51470000000000005</v>
       </c>
       <c r="W5">
-        <v>0.54615000000000002</v>
+        <v>0.44785000000000003</v>
       </c>
       <c r="X5">
-        <v>0.89024999999999999</v>
+        <v>0.44785000000000003</v>
       </c>
       <c r="Y5">
-        <v>0.45174999999999998</v>
+        <v>0.53820000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.56415000000000004</v>
+        <v>0.7762</v>
       </c>
       <c r="AA5">
-        <v>0.71855000000000002</v>
+        <v>0.42075000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.50024999999999997</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="AC5">
-        <v>0.70045000000000002</v>
+        <v>0.94425000000000003</v>
       </c>
       <c r="AD5">
-        <v>0.60550000000000004</v>
+        <v>0.83214999999999995</v>
       </c>
       <c r="AE5">
-        <v>0.77929999999999999</v>
+        <v>0.46145000000000003</v>
       </c>
       <c r="AF5">
-        <v>0.66774999999999995</v>
+        <v>0.32495000000000002</v>
       </c>
       <c r="AG5">
-        <v>0.86155000000000004</v>
+        <v>0.57455000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.61485000000000001</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.43325000000000002</v>
+        <v>0.44685000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.44964999999999999</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="AK5">
-        <v>0.53549999999999998</v>
+        <v>0.60209999999999997</v>
       </c>
       <c r="AL5">
-        <v>0.60724999999999996</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AM5">
-        <v>0.55810000000000004</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.60780000000000001</v>
+        <v>0.45495000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.58630000000000004</v>
+        <v>0.29244999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.53125</v>
+        <v>0.43385000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.44695000000000001</v>
+        <v>0.87805</v>
       </c>
       <c r="AR5">
-        <v>0.73580000000000001</v>
+        <v>0.63265000000000005</v>
       </c>
       <c r="AS5">
-        <v>0.63234999999999997</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="AT5">
-        <v>0.83255000000000001</v>
+        <v>0.84589999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.60640000000000005</v>
+        <v>0.50549999999999995</v>
       </c>
       <c r="AV5">
-        <v>0.56254999999999999</v>
+        <v>0.50139999999999996</v>
       </c>
       <c r="AW5">
-        <v>0.63180000000000003</v>
+        <v>0.33410000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.48330000000000001</v>
+        <v>0.42175000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.79005000000000003</v>
+        <v>0.41804999999999998</v>
       </c>
       <c r="B6">
-        <v>0.76854999999999996</v>
+        <v>0.3155</v>
       </c>
       <c r="C6">
-        <v>0.73650000000000004</v>
+        <v>0.70165</v>
       </c>
       <c r="D6">
-        <v>0.70884999999999998</v>
+        <v>0.78334999999999999</v>
       </c>
       <c r="E6">
-        <v>0.81764999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F6">
-        <v>0.74050000000000005</v>
+        <v>0.80025000000000002</v>
       </c>
       <c r="G6">
-        <v>0.23455000000000001</v>
+        <v>0.77625</v>
       </c>
       <c r="H6">
-        <v>0.314</v>
+        <v>0.30504999999999999</v>
       </c>
       <c r="I6">
-        <v>0.89695000000000003</v>
+        <v>0.83814999999999995</v>
       </c>
       <c r="J6">
-        <v>0.53739999999999999</v>
+        <v>0.45929999999999999</v>
       </c>
       <c r="K6">
-        <v>0.70220000000000005</v>
+        <v>0.57784999999999997</v>
       </c>
       <c r="L6">
-        <v>0.54410000000000003</v>
+        <v>0.55740000000000001</v>
       </c>
       <c r="M6">
-        <v>0.89705000000000001</v>
+        <v>0.6845</v>
       </c>
       <c r="N6">
-        <v>0.52334999999999998</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="O6">
-        <v>0.81200000000000006</v>
+        <v>0.32485000000000003</v>
       </c>
       <c r="P6">
-        <v>0.70145000000000002</v>
+        <v>0.57894999999999996</v>
       </c>
       <c r="Q6">
-        <v>0.62939999999999996</v>
+        <v>0.86845000000000006</v>
       </c>
       <c r="R6">
-        <v>0.84675</v>
+        <v>0.66454999999999997</v>
       </c>
       <c r="S6">
-        <v>0.58979999999999999</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="T6">
-        <v>0.57225000000000004</v>
+        <v>0.40475</v>
       </c>
       <c r="U6">
-        <v>0.66679999999999995</v>
+        <v>0.66074999999999995</v>
       </c>
       <c r="V6">
-        <v>0.40255000000000002</v>
+        <v>0.51124999999999998</v>
       </c>
       <c r="W6">
-        <v>0.44585000000000002</v>
+        <v>0.44540000000000002</v>
       </c>
       <c r="X6">
-        <v>0.97289999999999999</v>
+        <v>0.34584999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.5464</v>
+        <v>0.44855</v>
       </c>
       <c r="Z6">
-        <v>0.43214999999999998</v>
+        <v>0.70635000000000003</v>
       </c>
       <c r="AA6">
-        <v>0.64915</v>
+        <v>0.51615</v>
       </c>
       <c r="AB6">
-        <v>0.32424999999999998</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="AC6">
-        <v>0.8165</v>
+        <v>0.81474999999999997</v>
       </c>
       <c r="AD6">
-        <v>0.47710000000000002</v>
+        <v>0.75385000000000002</v>
       </c>
       <c r="AE6">
-        <v>0.66649999999999998</v>
+        <v>0.37595000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.80184999999999995</v>
+        <v>0.55374999999999996</v>
       </c>
       <c r="AG6">
-        <v>0.78854999999999997</v>
+        <v>0.46644999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.5534</v>
+        <v>0.28744999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.49645</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.38890000000000002</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="AK6">
-        <v>0.67410000000000003</v>
+        <v>0.72945000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.58574999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AM6">
-        <v>0.46925</v>
+        <v>0.54205000000000003</v>
       </c>
       <c r="AN6">
-        <v>0.57120000000000004</v>
+        <v>0.41449999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.70409999999999995</v>
+        <v>0.21254999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.36559999999999998</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.35699999999999998</v>
+        <v>0.78695000000000004</v>
       </c>
       <c r="AR6">
-        <v>0.68279999999999996</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="AS6">
-        <v>0.59440000000000004</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="AT6">
-        <v>0.76970000000000005</v>
+        <v>0.80974999999999997</v>
       </c>
       <c r="AU6">
-        <v>0.74275000000000002</v>
+        <v>0.64195000000000002</v>
       </c>
       <c r="AV6">
-        <v>0.50785000000000002</v>
+        <v>0.50385000000000002</v>
       </c>
       <c r="AW6">
-        <v>0.63749999999999996</v>
+        <v>0.36220000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.74580000000000002</v>
+        <v>0.53205000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.73019999999999996</v>
+        <v>0.51405000000000001</v>
       </c>
       <c r="B7">
-        <v>0.58784999999999998</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="C7">
-        <v>0.80935000000000001</v>
+        <v>0.6734</v>
       </c>
       <c r="D7">
-        <v>0.82115000000000005</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="E7">
-        <v>0.78785000000000005</v>
+        <v>0.6835</v>
       </c>
       <c r="F7">
-        <v>0.58160000000000001</v>
+        <v>0.66835</v>
       </c>
       <c r="G7">
-        <v>0.14485000000000001</v>
+        <v>0.74039999999999995</v>
       </c>
       <c r="H7">
-        <v>0.62355000000000005</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="I7">
-        <v>0.82804999999999995</v>
+        <v>0.78005000000000002</v>
       </c>
       <c r="J7">
-        <v>0.54815000000000003</v>
+        <v>0.36354999999999998</v>
       </c>
       <c r="K7">
-        <v>0.82374999999999998</v>
+        <v>0.48094999999999999</v>
       </c>
       <c r="L7">
-        <v>0.37269999999999998</v>
+        <v>0.46284999999999998</v>
       </c>
       <c r="M7">
-        <v>0.82435000000000003</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="N7">
-        <v>0.57079999999999997</v>
+        <v>0.63775000000000004</v>
       </c>
       <c r="O7">
-        <v>0.66879999999999995</v>
+        <v>0.18335000000000001</v>
       </c>
       <c r="P7">
-        <v>0.65075000000000005</v>
+        <v>0.32364999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.52070000000000005</v>
+        <v>0.88905000000000001</v>
       </c>
       <c r="R7">
-        <v>0.93664999999999998</v>
+        <v>0.61204999999999998</v>
       </c>
       <c r="S7">
-        <v>0.41465000000000002</v>
+        <v>0.32965</v>
       </c>
       <c r="T7">
-        <v>0.75349999999999995</v>
+        <v>0.42804999999999999</v>
       </c>
       <c r="U7">
-        <v>0.60765000000000002</v>
+        <v>0.88354999999999995</v>
       </c>
       <c r="V7">
-        <v>0.41084999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="W7">
-        <v>0.65364999999999995</v>
+        <v>0.3619</v>
       </c>
       <c r="X7">
-        <v>0.94640000000000002</v>
+        <v>0.47460000000000002</v>
       </c>
       <c r="Y7">
-        <v>0.63859999999999995</v>
+        <v>0.44624999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.35925000000000001</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="AA7">
-        <v>0.57355</v>
+        <v>0.65144999999999997</v>
       </c>
       <c r="AB7">
-        <v>0.39505000000000001</v>
+        <v>0.73675000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.78259999999999996</v>
+        <v>0.64664999999999995</v>
       </c>
       <c r="AD7">
-        <v>0.54869999999999997</v>
+        <v>0.94184999999999997</v>
       </c>
       <c r="AE7">
-        <v>0.60419999999999996</v>
+        <v>0.48970000000000002</v>
       </c>
       <c r="AF7">
-        <v>0.7712</v>
+        <v>0.56845000000000001</v>
       </c>
       <c r="AG7">
-        <v>0.71240000000000003</v>
+        <v>0.3241</v>
       </c>
       <c r="AH7">
-        <v>0.52900000000000003</v>
+        <v>0.1716</v>
       </c>
       <c r="AI7">
-        <v>0.4768</v>
+        <v>0.3553</v>
       </c>
       <c r="AJ7">
-        <v>0.33274999999999999</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AK7">
-        <v>0.49354999999999999</v>
+        <v>0.49585000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.47739999999999999</v>
+        <v>0.59325000000000006</v>
       </c>
       <c r="AM7">
-        <v>0.30104999999999998</v>
+        <v>0.60035000000000005</v>
       </c>
       <c r="AN7">
-        <v>0.53810000000000002</v>
+        <v>0.35580000000000001</v>
       </c>
       <c r="AO7">
-        <v>0.61870000000000003</v>
+        <v>0.25169999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.41105000000000003</v>
+        <v>0.20549999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.23435</v>
+        <v>0.74485000000000001</v>
       </c>
       <c r="AR7">
-        <v>0.79264999999999997</v>
+        <v>0.74985000000000002</v>
       </c>
       <c r="AS7">
-        <v>0.72209999999999996</v>
+        <v>0.50114999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.54559999999999997</v>
+        <v>0.65205000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.55669999999999997</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="AV7">
-        <v>0.53510000000000002</v>
+        <v>0.50265000000000004</v>
       </c>
       <c r="AW7">
-        <v>0.8448</v>
+        <v>0.27979999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.6744</v>
+        <v>0.58094999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69035000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="B8">
-        <v>0.42695</v>
+        <v>0.58115000000000006</v>
       </c>
       <c r="C8">
-        <v>0.61704999999999999</v>
+        <v>0.57315000000000005</v>
       </c>
       <c r="D8">
-        <v>0.64415</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="E8">
-        <v>0.57609999999999995</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="F8">
-        <v>0.75165000000000004</v>
+        <v>0.77015</v>
       </c>
       <c r="G8">
-        <v>4.0750000000000001E-2</v>
+        <v>0.82094999999999996</v>
       </c>
       <c r="H8">
-        <v>0.76065000000000005</v>
+        <v>0.56264999999999998</v>
       </c>
       <c r="I8">
-        <v>0.53334999999999999</v>
+        <v>0.64165000000000005</v>
       </c>
       <c r="J8">
-        <v>0.52685000000000004</v>
+        <v>0.29185</v>
       </c>
       <c r="K8">
-        <v>0.64615</v>
+        <v>0.31069999999999998</v>
       </c>
       <c r="L8">
-        <v>0.16439999999999999</v>
+        <v>0.55720000000000003</v>
       </c>
       <c r="M8">
-        <v>0.82220000000000004</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="N8">
-        <v>0.52910000000000001</v>
+        <v>0.45684999999999998</v>
       </c>
       <c r="O8">
-        <v>0.90774999999999995</v>
+        <v>9.0450000000000003E-2</v>
       </c>
       <c r="P8">
-        <v>0.52739999999999998</v>
+        <v>0.37075000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.3861</v>
+        <v>0.91415000000000002</v>
       </c>
       <c r="R8">
-        <v>0.88670000000000004</v>
+        <v>0.55295000000000005</v>
       </c>
       <c r="S8">
-        <v>0.28155000000000002</v>
+        <v>0.52985000000000004</v>
       </c>
       <c r="T8">
-        <v>0.76214999999999999</v>
+        <v>0.49480000000000002</v>
       </c>
       <c r="U8">
-        <v>0.87590000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="V8">
-        <v>0.40134999999999998</v>
+        <v>0.52044999999999997</v>
       </c>
       <c r="W8">
-        <v>0.53195000000000003</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="X8">
-        <v>0.79644999999999999</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.73394999999999999</v>
+        <v>0.31885000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.60829999999999995</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.52449999999999997</v>
+        <v>0.55525000000000002</v>
       </c>
       <c r="AB8">
-        <v>0.50205</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.96045000000000003</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.46195000000000003</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.73445000000000005</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="AF8">
-        <v>0.73934999999999995</v>
+        <v>0.60014999999999996</v>
       </c>
       <c r="AG8">
-        <v>0.75880000000000003</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="AH8">
-        <v>0.43509999999999999</v>
+        <v>0.11645</v>
       </c>
       <c r="AI8">
-        <v>0.35470000000000002</v>
+        <v>0.52039999999999997</v>
       </c>
       <c r="AJ8">
-        <v>0.32519999999999999</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="AK8">
-        <v>0.30985000000000001</v>
+        <v>0.36504999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.4708</v>
+        <v>0.5948</v>
       </c>
       <c r="AM8">
-        <v>0.33529999999999999</v>
+        <v>0.40155000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.51405000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="AO8">
-        <v>0.73240000000000005</v>
+        <v>0.42175000000000001</v>
       </c>
       <c r="AP8">
-        <v>0.44409999999999999</v>
+        <v>0.12515000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.31705</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.73265000000000002</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="AS8">
-        <v>0.83674999999999999</v>
+        <v>0.44059999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.76770000000000005</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="AU8">
-        <v>0.56515000000000004</v>
+        <v>0.434</v>
       </c>
       <c r="AV8">
-        <v>0.5625</v>
+        <v>0.45605000000000001</v>
       </c>
       <c r="AW8">
-        <v>0.71614999999999995</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.60245000000000004</v>
+        <v>0.41444999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.49990000000000001</v>
+        <v>0.3291</v>
       </c>
       <c r="B9">
-        <v>0.67920000000000003</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="C9">
-        <v>0.50624999999999998</v>
+        <v>0.61260000000000003</v>
       </c>
       <c r="D9">
-        <v>0.59370000000000001</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="E9">
-        <v>0.34244999999999998</v>
+        <v>0.69564999999999999</v>
       </c>
       <c r="F9">
-        <v>0.70850000000000002</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="G9">
-        <v>8.7849999999999998E-2</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="H9">
-        <v>0.50095000000000001</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="I9">
-        <v>0.42970000000000003</v>
+        <v>0.41189999999999999</v>
       </c>
       <c r="J9">
-        <v>0.76400000000000001</v>
+        <v>0.3997</v>
       </c>
       <c r="K9">
-        <v>0.61539999999999995</v>
+        <v>0.31135000000000002</v>
       </c>
       <c r="L9">
-        <v>0.31075000000000003</v>
+        <v>0.47825000000000001</v>
       </c>
       <c r="M9">
-        <v>0.74619999999999997</v>
+        <v>0.7984</v>
       </c>
       <c r="N9">
-        <v>0.62070000000000003</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="O9">
-        <v>0.8911</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="P9">
-        <v>0.49045</v>
+        <v>0.25309999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.42309999999999998</v>
+        <v>0.87829999999999997</v>
       </c>
       <c r="R9">
-        <v>0.83904999999999996</v>
+        <v>0.58794999999999997</v>
       </c>
       <c r="S9">
-        <v>0.22189999999999999</v>
+        <v>0.70194999999999996</v>
       </c>
       <c r="T9">
-        <v>0.81164999999999998</v>
+        <v>0.75875000000000004</v>
       </c>
       <c r="U9">
-        <v>0.83355000000000001</v>
+        <v>0.98724999999999996</v>
       </c>
       <c r="V9">
-        <v>0.55915000000000004</v>
+        <v>0.41449999999999998</v>
       </c>
       <c r="W9">
-        <v>0.46089999999999998</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="X9">
-        <v>0.62839999999999996</v>
+        <v>0.55015000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.76424999999999998</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.56935000000000002</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="AA9">
-        <v>0.48620000000000002</v>
+        <v>0.59455000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.28749999999999998</v>
+        <v>0.89115</v>
       </c>
       <c r="AC9">
-        <v>0.85529999999999995</v>
+        <v>0.76085000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.58614999999999995</v>
+        <v>0.52585000000000004</v>
       </c>
       <c r="AE9">
-        <v>0.43725000000000003</v>
+        <v>0.33455000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.68110000000000004</v>
+        <v>0.51259999999999994</v>
       </c>
       <c r="AG9">
-        <v>0.69684999999999997</v>
+        <v>0.29154999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.21415000000000001</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="AI9">
-        <v>0.51500000000000001</v>
+        <v>0.47155000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.45710000000000001</v>
+        <v>0.59530000000000005</v>
       </c>
       <c r="AK9">
-        <v>0.64644999999999997</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.52944999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="AM9">
-        <v>0.46750000000000003</v>
+        <v>0.71814999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.50360000000000005</v>
+        <v>0.55225000000000002</v>
       </c>
       <c r="AO9">
-        <v>0.63824999999999998</v>
+        <v>0.22935</v>
       </c>
       <c r="AP9">
-        <v>0.47825000000000001</v>
+        <v>0.30570000000000003</v>
       </c>
       <c r="AQ9">
-        <v>0.17544999999999999</v>
+        <v>0.46660000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.67859999999999998</v>
+        <v>0.60885</v>
       </c>
       <c r="AS9">
-        <v>0.85429999999999995</v>
+        <v>0.6875</v>
       </c>
       <c r="AT9">
-        <v>0.75775000000000003</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.42554999999999998</v>
+        <v>0.16259999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.78920000000000001</v>
+        <v>0.57994999999999997</v>
       </c>
       <c r="AW9">
-        <v>0.56999999999999995</v>
+        <v>0.30325000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.76395000000000002</v>
+        <v>0.23225000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.46100000000000002</v>
+        <v>0.19405</v>
       </c>
       <c r="B10">
-        <v>0.56915000000000004</v>
+        <v>0.30264999999999997</v>
       </c>
       <c r="C10">
-        <v>0.46465000000000001</v>
+        <v>0.63049999999999995</v>
       </c>
       <c r="D10">
-        <v>0.78285000000000005</v>
+        <v>0.79315000000000002</v>
       </c>
       <c r="E10">
-        <v>0.37609999999999999</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="F10">
-        <v>0.90354999999999996</v>
+        <v>0.80230000000000001</v>
       </c>
       <c r="G10">
-        <v>3.0499999999999999E-2</v>
+        <v>0.59055000000000002</v>
       </c>
       <c r="H10">
-        <v>0.58794999999999997</v>
+        <v>0.28420000000000001</v>
       </c>
       <c r="I10">
-        <v>0.62285000000000001</v>
+        <v>0.42525000000000002</v>
       </c>
       <c r="J10">
-        <v>0.78639999999999999</v>
+        <v>0.44445000000000001</v>
       </c>
       <c r="K10">
-        <v>0.62570000000000003</v>
+        <v>0.29425000000000001</v>
       </c>
       <c r="L10">
-        <v>0.26140000000000002</v>
+        <v>0.73304999999999998</v>
       </c>
       <c r="M10">
-        <v>0.69369999999999998</v>
+        <v>0.7278</v>
       </c>
       <c r="N10">
-        <v>0.55920000000000003</v>
+        <v>0.36314999999999997</v>
       </c>
       <c r="O10">
-        <v>0.87885000000000002</v>
+        <v>0.35975000000000001</v>
       </c>
       <c r="P10">
-        <v>0.42115000000000002</v>
+        <v>0.1298</v>
       </c>
       <c r="Q10">
-        <v>0.4269</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="R10">
-        <v>0.67605000000000004</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="S10">
-        <v>0.27589999999999998</v>
+        <v>0.65405000000000002</v>
       </c>
       <c r="T10">
-        <v>0.71530000000000005</v>
+        <v>0.80405000000000004</v>
       </c>
       <c r="U10">
-        <v>0.78029999999999999</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="V10">
-        <v>0.78564999999999996</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="W10">
-        <v>0.46274999999999999</v>
+        <v>0.5625</v>
       </c>
       <c r="X10">
-        <v>0.80859999999999999</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="Y10">
-        <v>0.54520000000000002</v>
+        <v>0.25109999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.58474999999999999</v>
+        <v>0.5837</v>
       </c>
       <c r="AA10">
-        <v>0.48485</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.31159999999999999</v>
+        <v>0.74914999999999998</v>
       </c>
       <c r="AC10">
-        <v>0.72945000000000004</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.64200000000000002</v>
+        <v>0.57955000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.46800000000000003</v>
+        <v>0.37219999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.74504999999999999</v>
+        <v>0.36070000000000002</v>
       </c>
       <c r="AG10">
-        <v>0.75824999999999998</v>
+        <v>0.35225000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.1515</v>
+        <v>0.40034999999999998</v>
       </c>
       <c r="AI10">
-        <v>0.55930000000000002</v>
+        <v>0.59409999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.68415000000000004</v>
+        <v>0.4456</v>
       </c>
       <c r="AK10">
-        <v>0.69869999999999999</v>
+        <v>0.1628</v>
       </c>
       <c r="AL10">
-        <v>0.64734999999999998</v>
+        <v>0.42470000000000002</v>
       </c>
       <c r="AM10">
-        <v>0.56389999999999996</v>
+        <v>0.84770000000000001</v>
       </c>
       <c r="AN10">
-        <v>0.44569999999999999</v>
+        <v>0.76975000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.58240000000000003</v>
+        <v>0.15905</v>
       </c>
       <c r="AP10">
-        <v>0.49054999999999999</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.26945000000000002</v>
+        <v>0.35075000000000001</v>
       </c>
       <c r="AR10">
-        <v>0.58015000000000005</v>
+        <v>0.54195000000000004</v>
       </c>
       <c r="AS10">
-        <v>0.76815</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.68184999999999996</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="AU10">
-        <v>0.38795000000000002</v>
+        <v>0.11755</v>
       </c>
       <c r="AV10">
-        <v>0.62050000000000005</v>
+        <v>0.49614999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.36580000000000001</v>
+        <v>0.27929999999999999</v>
       </c>
       <c r="AX10">
-        <v>0.55620000000000003</v>
+        <v>0.1903</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.41160000000000002</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="B11">
-        <v>0.34884999999999999</v>
+        <v>0.60009999999999997</v>
       </c>
       <c r="C11">
-        <v>0.18934999999999999</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="D11">
-        <v>0.53869999999999996</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="E11">
-        <v>0.50485000000000002</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="F11">
-        <v>0.71645000000000003</v>
+        <v>0.69140000000000001</v>
       </c>
       <c r="G11">
-        <v>1.5800000000000002E-2</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="H11">
-        <v>0.28975000000000001</v>
+        <v>0.50544999999999995</v>
       </c>
       <c r="I11">
-        <v>0.57155</v>
+        <v>0.52334999999999998</v>
       </c>
       <c r="J11">
-        <v>0.73509999999999998</v>
+        <v>0.42115000000000002</v>
       </c>
       <c r="K11">
-        <v>0.55025000000000002</v>
+        <v>0.34605000000000002</v>
       </c>
       <c r="L11">
-        <v>0.41589999999999999</v>
+        <v>0.4037</v>
       </c>
       <c r="M11">
-        <v>0.66044999999999998</v>
+        <v>0.73060000000000003</v>
       </c>
       <c r="N11">
-        <v>0.58574999999999999</v>
+        <v>0.48480000000000001</v>
       </c>
       <c r="O11">
-        <v>0.80705000000000005</v>
+        <v>0.32574999999999998</v>
       </c>
       <c r="P11">
-        <v>0.34499999999999997</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.35525000000000001</v>
+        <v>0.80520000000000003</v>
       </c>
       <c r="R11">
-        <v>0.70750000000000002</v>
+        <v>0.66884999999999994</v>
       </c>
       <c r="S11">
-        <v>0.32305</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="T11">
-        <v>0.59919999999999995</v>
+        <v>0.77564999999999995</v>
       </c>
       <c r="U11">
-        <v>0.92854999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="V11">
-        <v>0.55135000000000001</v>
+        <v>0.58135000000000003</v>
       </c>
       <c r="W11">
-        <v>0.58199999999999996</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="X11">
-        <v>0.68245</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.54305000000000003</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.68284999999999996</v>
+        <v>0.69735000000000003</v>
       </c>
       <c r="AA11">
-        <v>0.73945000000000005</v>
+        <v>0.22785</v>
       </c>
       <c r="AB11">
-        <v>0.40300000000000002</v>
+        <v>0.59219999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.67169999999999996</v>
+        <v>0.75785000000000002</v>
       </c>
       <c r="AD11">
-        <v>0.52059999999999995</v>
+        <v>0.59735000000000005</v>
       </c>
       <c r="AE11">
-        <v>0.53800000000000003</v>
+        <v>0.47344999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.68735000000000002</v>
+        <v>0.26715</v>
       </c>
       <c r="AG11">
-        <v>0.77700000000000002</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.1724</v>
+        <v>0.48325000000000001</v>
       </c>
       <c r="AI11">
-        <v>0.53139999999999998</v>
+        <v>0.53954999999999997</v>
       </c>
       <c r="AJ11">
-        <v>0.61204999999999998</v>
+        <v>0.35220000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.69740000000000002</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="AL11">
-        <v>0.71345000000000003</v>
+        <v>0.70569999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.58174999999999999</v>
+        <v>0.92335</v>
       </c>
       <c r="AN11">
-        <v>0.37535000000000002</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="AO11">
-        <v>0.69879999999999998</v>
+        <v>0.30385000000000001</v>
       </c>
       <c r="AP11">
-        <v>0.47125</v>
+        <v>0.71004999999999996</v>
       </c>
       <c r="AQ11">
-        <v>0.26355000000000001</v>
+        <v>0.63565000000000005</v>
       </c>
       <c r="AR11">
-        <v>0.74995000000000001</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="AS11">
-        <v>0.56845000000000001</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.69869999999999999</v>
+        <v>0.62234999999999996</v>
       </c>
       <c r="AU11">
-        <v>0.31864999999999999</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.67864999999999998</v>
+        <v>0.57264999999999999</v>
       </c>
       <c r="AW11">
-        <v>0.43855</v>
+        <v>0.3397</v>
       </c>
       <c r="AX11">
-        <v>0.40144999999999997</v>
+        <v>7.5200000000000003E-2</v>
       </c>
     </row>
   </sheetData>
